--- a/assets/excel/template-party.xlsx
+++ b/assets/excel/template-party.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hungk\Desktop\image\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\party-promotion\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Tetmplate Store Plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tetmplate Store Plan'!$A$2:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tetmplate Store Plan'!$A$2:$T$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>STT</t>
   </si>
@@ -48,9 +48,6 @@
   <si>
     <t>Mã NVien 
 (Sales)</t>
-  </si>
-  <si>
-    <t>Tỉnh</t>
   </si>
   <si>
     <t>Mã tiệc</t>
@@ -254,28 +251,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -614,145 +611,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.09765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.3984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.09765625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="1" customWidth="1"/>
-    <col min="13" max="21" width="19.19921875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.3984375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.69921875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="11" style="1"/>
+    <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="20" width="19.19921875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="18.3984375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.69921875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:23" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="1"/>
+      <c r="W2" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <sortState ref="A124:R150">
-    <sortCondition ref="F124:F150"/>
+    <sortCondition ref="E124:E150"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="B1:U1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B1:C2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="B1:B2">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/excel/template-party.xlsx
+++ b/assets/excel/template-party.xlsx
@@ -46,10 +46,6 @@
     <t>Mã NPP</t>
   </si>
   <si>
-    <t>Mã NVien 
-(Sales)</t>
-  </si>
-  <si>
     <t>Mã tiệc</t>
   </si>
   <si>
@@ -109,6 +105,9 @@
   </si>
   <si>
     <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Tháng</t>
   </si>
 </sst>
 </file>
@@ -614,14 +613,13 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.09765625" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.19921875" style="1" customWidth="1"/>
@@ -644,10 +642,12 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="11"/>
+      <c r="B1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -670,79 +670,78 @@
     </row>
     <row r="2" spans="1:23" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="T2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="W2" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState ref="A124:R150">
+  <sortState ref="A124:S150">
     <sortCondition ref="E124:E150"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B2">
+  <conditionalFormatting sqref="C1:C2">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
